--- a/Excel/2-processing_data/excel_processing_data.xlsx
+++ b/Excel/2-processing_data/excel_processing_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uq.sharepoint.com/teams/lbf4g4a1/DXDCSTraining/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uq-my.sharepoint.com/personal/uqnwiggi_uq_edu_au/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_CAA0FD4C08344DA1287DCB447663278DBB7B030F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{473FB239-07DA-4A22-B8FE-02A1FA122848}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E9EF29-9409-4D2B-8259-2649B80FD121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18900" yWindow="3850" windowWidth="19180" windowHeight="7240" tabRatio="886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relative and Absolute cells" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="322">
   <si>
     <t>App No</t>
   </si>
@@ -1031,6 +1031,9 @@
   </si>
   <si>
     <t>Harry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastName </t>
   </si>
 </sst>
 </file>
@@ -1661,29 +1664,29 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
@@ -1728,7 +1731,7 @@
       </c>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -1766,7 +1769,7 @@
       <c r="M2"/>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -1804,7 +1807,7 @@
       <c r="M3"/>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -1842,7 +1845,7 @@
       <c r="M4"/>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -1880,7 +1883,7 @@
       <c r="M5"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>7</v>
       </c>
@@ -1918,7 +1921,7 @@
       <c r="M6"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>10</v>
       </c>
@@ -1956,7 +1959,7 @@
       <c r="M7"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>12</v>
       </c>
@@ -1994,7 +1997,7 @@
       <c r="M8"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>13</v>
       </c>
@@ -2032,7 +2035,7 @@
       <c r="M9"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>15</v>
       </c>
@@ -2070,7 +2073,7 @@
       <c r="M10"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>16</v>
       </c>
@@ -2108,7 +2111,7 @@
       <c r="M11"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>17</v>
       </c>
@@ -2146,7 +2149,7 @@
       <c r="M12"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>19</v>
       </c>
@@ -2184,7 +2187,7 @@
       <c r="M13"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>20</v>
       </c>
@@ -2222,7 +2225,7 @@
       <c r="M14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>21</v>
       </c>
@@ -2260,7 +2263,7 @@
       <c r="M15"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>22</v>
       </c>
@@ -2298,7 +2301,7 @@
       <c r="M16"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>23</v>
       </c>
@@ -2336,7 +2339,7 @@
       <c r="M17"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>26</v>
       </c>
@@ -2374,7 +2377,7 @@
       <c r="M18"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>28</v>
       </c>
@@ -2412,7 +2415,7 @@
       <c r="M19"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>29</v>
       </c>
@@ -2450,7 +2453,7 @@
       <c r="M20"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>32</v>
       </c>
@@ -2488,7 +2491,7 @@
       <c r="M21"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>33</v>
       </c>
@@ -2526,7 +2529,7 @@
       <c r="M22"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>34</v>
       </c>
@@ -2564,7 +2567,7 @@
       <c r="M23"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>35</v>
       </c>
@@ -2602,7 +2605,7 @@
       <c r="M24"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>37</v>
       </c>
@@ -2640,7 +2643,7 @@
       <c r="M25"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>45</v>
       </c>
@@ -2678,7 +2681,7 @@
       <c r="M26"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>47</v>
       </c>
@@ -2716,7 +2719,7 @@
       <c r="M27"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="K28" s="15">
         <f t="shared" ref="K28:L28" si="0">SUM(K2:K27)</f>
         <v>245315</v>
@@ -2727,7 +2730,7 @@
       </c>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="13"/>
@@ -2751,17 +2754,17 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="39" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="6.44140625" style="39"/>
+    <col min="4" max="4" width="15.08984375" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="6.453125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>81</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>86</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>87</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>88</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>89</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>62</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>90</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>91</v>
       </c>
@@ -2855,32 +2858,32 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="43"/>
       <c r="C17" s="43" t="s">
         <v>95</v>
@@ -2908,23 +2911,23 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
-    <col min="9" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.36328125" customWidth="1"/>
+    <col min="9" max="10" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>5</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>7</v>
       </c>
@@ -3027,7 +3030,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>8</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -3091,7 +3094,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>15</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>16</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>24</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>34</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>38</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>39</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>53</v>
       </c>
@@ -3347,7 +3350,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>59</v>
       </c>
@@ -3379,22 +3382,22 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -3413,26 +3416,26 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.90625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>125</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>127</v>
       </c>
@@ -3458,7 +3461,7 @@
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="30">
         <v>1</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>99</v>
       </c>
@@ -3536,7 +3539,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="D5" s="33" t="s">
@@ -3571,7 +3574,7 @@
         <v>58.666666666666664</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="D6" s="33" t="s">
@@ -3606,7 +3609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="D7" s="33" t="s">
@@ -3641,7 +3644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="D8" s="33" t="s">
@@ -3676,7 +3679,7 @@
         <v>92.333333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="D9" s="33" t="s">
@@ -3711,7 +3714,7 @@
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D10" s="33" t="s">
         <v>135</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D11" s="33" t="s">
         <v>140</v>
       </c>
@@ -3777,7 +3780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D12" s="33" t="s">
         <v>142</v>
       </c>
@@ -3810,7 +3813,7 @@
         <v>63.333333333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D13" s="33" t="s">
         <v>144</v>
       </c>
@@ -3843,7 +3846,7 @@
         <v>90.666666666666671</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D14" s="33" t="s">
         <v>146</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>80.666666666666671</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D15" s="33" t="s">
         <v>148</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D16" s="33" t="s">
         <v>150</v>
       </c>
@@ -3942,7 +3945,7 @@
         <v>70.333333333333329</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D17" s="33" t="s">
         <v>152</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="4:13" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:13" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D20" s="54" t="s">
         <v>154</v>
       </c>
@@ -3983,7 +3986,7 @@
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
     </row>
-    <row r="21" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="D21" s="4" t="s">
         <v>128</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D22" s="6" t="s">
         <v>129</v>
       </c>
@@ -4014,46 +4017,46 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D23" s="6"/>
       <c r="I23" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D24" s="6"/>
       <c r="I24" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="6"/>
     </row>
   </sheetData>
@@ -4081,15 +4084,15 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="18"/>
+    <col min="1" max="1" width="35.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="9.08984375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>159</v>
       </c>
@@ -4109,7 +4112,7 @@
       <c r="P1" s="44"/>
       <c r="Q1" s="44"/>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
@@ -4122,7 +4125,7 @@
       <c r="P2" s="44"/>
       <c r="Q2" s="44"/>
     </row>
-    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>161</v>
       </c>
@@ -4140,7 +4143,7 @@
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
     </row>
-    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>163</v>
       </c>
@@ -4156,7 +4159,7 @@
       <c r="P4" s="44"/>
       <c r="Q4" s="44"/>
     </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="G5" s="44" t="s">
         <v>164</v>
@@ -4172,7 +4175,7 @@
       <c r="P5" s="44"/>
       <c r="Q5" s="44"/>
     </row>
-    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>165</v>
       </c>
@@ -4188,7 +4191,7 @@
       <c r="P6" s="44"/>
       <c r="Q6" s="44"/>
     </row>
-    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>166</v>
       </c>
@@ -4206,7 +4209,7 @@
       <c r="P7" s="44"/>
       <c r="Q7" s="44"/>
     </row>
-    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
@@ -4219,7 +4222,7 @@
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
     </row>
-    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G9" s="44" t="s">
         <v>168</v>
       </c>
@@ -4234,7 +4237,7 @@
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
     </row>
-    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>169</v>
       </c>
@@ -4258,7 +4261,7 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
     </row>
-    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>173</v>
       </c>
@@ -4280,7 +4283,7 @@
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
     </row>
-    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>175</v>
       </c>
@@ -4304,7 +4307,7 @@
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
     </row>
-    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>178</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>180</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>182</v>
       </c>
@@ -4337,7 +4340,7 @@
         <v>104.63800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>184</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>51.176000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>186</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>3.137</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>188</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>1.0640000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>190</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>192</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>2.0880000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>194</v>
       </c>
@@ -4403,7 +4406,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
         <v>196</v>
       </c>
@@ -4437,24 +4440,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" customWidth="1"/>
+    <col min="14" max="14" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -4513,7 +4516,7 @@
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E33" ca="1" si="0">(TODAY()-D2)/365</f>
-        <v>25.468493150684932</v>
+        <v>25.854794520547944</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -4545,7 +4548,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4560,7 +4563,7 @@
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.367123287671234</v>
+        <v>35.753424657534246</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -4592,7 +4595,7 @@
         <v>0.86671052631578949</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>43</v>
       </c>
@@ -4607,7 +4610,7 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34.484931506849314</v>
+        <v>34.871232876712327</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -4639,7 +4642,7 @@
         <v>0.86628571428571433</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>52</v>
       </c>
@@ -4654,7 +4657,7 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>44.602739726027394</v>
+        <v>44.989041095890414</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -4686,7 +4689,7 @@
         <v>0.738423645320197</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>31</v>
       </c>
@@ -4701,7 +4704,7 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34.493150684931507</v>
+        <v>34.87945205479452</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -4733,7 +4736,7 @@
         <v>0.97494722026741731</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -4748,7 +4751,7 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>27.726027397260275</v>
+        <v>28.112328767123287</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -4780,7 +4783,7 @@
         <v>0.41088783339422724</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>27</v>
       </c>
@@ -4795,7 +4798,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>25.167123287671235</v>
+        <v>25.553424657534247</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -4827,7 +4830,7 @@
         <v>0.84377055169894044</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -4842,7 +4845,7 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>26.07123287671233</v>
+        <v>26.457534246575342</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -4874,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -4889,7 +4892,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.19178082191781</v>
+        <v>33.578082191780823</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -4921,7 +4924,7 @@
         <v>0.77354767994154183</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -4936,7 +4939,7 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.81917808219178</v>
+        <v>31.205479452054796</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -4968,7 +4971,7 @@
         <v>0.31707317073170732</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>35</v>
       </c>
@@ -4983,7 +4986,7 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>39.156164383561645</v>
+        <v>39.542465753424658</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -5015,7 +5018,7 @@
         <v>0.47781249999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -5030,7 +5033,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.468493150684932</v>
+        <v>30.854794520547944</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -5062,7 +5065,7 @@
         <v>0.47781249999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -5077,7 +5080,7 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.145205479452052</v>
+        <v>33.531506849315072</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -5109,7 +5112,7 @@
         <v>0.90211640211640209</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>36</v>
       </c>
@@ -5124,7 +5127,7 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.246575342465754</v>
+        <v>33.632876712328766</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -5156,7 +5159,7 @@
         <v>0.77142857142857146</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>38</v>
       </c>
@@ -5171,7 +5174,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.490410958904107</v>
+        <v>33.876712328767127</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -5203,7 +5206,7 @@
         <v>0.52422857142857138</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>49</v>
       </c>
@@ -5218,7 +5221,7 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>38.38082191780822</v>
+        <v>38.767123287671232</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -5250,7 +5253,7 @@
         <v>0.75280000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>3</v>
       </c>
@@ -5265,7 +5268,7 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.813698630136987</v>
+        <v>31.2</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -5297,7 +5300,7 @@
         <v>0.75280000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>21</v>
       </c>
@@ -5312,7 +5315,7 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>45.936986301369863</v>
+        <v>46.323287671232876</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -5344,7 +5347,7 @@
         <v>0.94285714285714284</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>57</v>
       </c>
@@ -5359,7 +5362,7 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>36.712328767123289</v>
+        <v>37.098630136986301</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -5391,7 +5394,7 @@
         <v>0.82285714285714284</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>39</v>
       </c>
@@ -5406,7 +5409,7 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.345205479452055</v>
+        <v>35.731506849315068</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -5438,7 +5441,7 @@
         <v>0.75280000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>53</v>
       </c>
@@ -5453,7 +5456,7 @@
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>32.372602739726027</v>
+        <v>32.758904109589039</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -5485,7 +5488,7 @@
         <v>0.55714285714285716</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>54</v>
       </c>
@@ -5500,7 +5503,7 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.92876712328767</v>
+        <v>31.315068493150687</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -5532,7 +5535,7 @@
         <v>0.52422857142857138</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>56</v>
       </c>
@@ -5547,7 +5550,7 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34.602739726027394</v>
+        <v>34.989041095890414</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -5579,7 +5582,7 @@
         <v>0.75360000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>59</v>
       </c>
@@ -5594,7 +5597,7 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.671232876712331</v>
+        <v>36.057534246575344</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -5626,7 +5629,7 @@
         <v>0.56971428571428573</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>10</v>
       </c>
@@ -5641,7 +5644,7 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>27.676712328767124</v>
+        <v>28.063013698630137</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
@@ -5673,7 +5676,7 @@
         <v>0.5590857142857143</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>40</v>
       </c>
@@ -5688,7 +5691,7 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>38.57260273972603</v>
+        <v>38.958904109589042</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -5720,7 +5723,7 @@
         <v>0.85234285714285718</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>46</v>
       </c>
@@ -5735,7 +5738,7 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34.934246575342463</v>
+        <v>35.320547945205476</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -5767,7 +5770,7 @@
         <v>0.65634285714285712</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -5782,7 +5785,7 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>28.205479452054796</v>
+        <v>28.591780821917808</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -5814,7 +5817,7 @@
         <v>0.97786927431806481</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -5829,7 +5832,7 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>36.271232876712325</v>
+        <v>36.657534246575345</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -5861,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>14</v>
       </c>
@@ -5876,7 +5879,7 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>47.38082191780822</v>
+        <v>47.767123287671232</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -5908,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>16</v>
       </c>
@@ -5923,7 +5926,7 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.046575342465751</v>
+        <v>33.43287671232877</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -5955,7 +5958,7 @@
         <v>0.47308286155429746</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -5970,7 +5973,7 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.936986301369863</v>
+        <v>36.323287671232876</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -6002,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>25</v>
       </c>
@@ -6017,7 +6020,7 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" ref="E34:E62" ca="1" si="3">(TODAY()-D34)/365</f>
-        <v>31.043835616438358</v>
+        <v>31.43013698630137</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -6049,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -6064,7 +6067,7 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>35.210958904109589</v>
+        <v>35.597260273972601</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -6096,7 +6099,7 @@
         <v>0.74112197632527022</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>45</v>
       </c>
@@ -6111,7 +6114,7 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>36.676712328767124</v>
+        <v>37.063013698630137</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -6143,7 +6146,7 @@
         <v>0.69284611425630471</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>47</v>
       </c>
@@ -6158,7 +6161,7 @@
       </c>
       <c r="E37" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>35.172602739726024</v>
+        <v>35.558904109589044</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -6190,7 +6193,7 @@
         <v>0.76767884714359236</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>41</v>
       </c>
@@ -6205,7 +6208,7 @@
       </c>
       <c r="E38" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>32.704109589041096</v>
+        <v>33.090410958904108</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -6237,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>55</v>
       </c>
@@ -6252,7 +6255,7 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>33.597260273972601</v>
+        <v>33.983561643835614</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -6284,7 +6287,7 @@
         <v>0.67112712300566135</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>26</v>
       </c>
@@ -6299,7 +6302,7 @@
       </c>
       <c r="E40" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>26.671232876712327</v>
+        <v>27.057534246575344</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -6331,7 +6334,7 @@
         <v>0.88142048378795679</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>4</v>
       </c>
@@ -6346,7 +6349,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>33.150684931506852</v>
+        <v>33.536986301369865</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -6378,7 +6381,7 @@
         <v>0.84247549794498888</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>5</v>
       </c>
@@ -6393,7 +6396,7 @@
       </c>
       <c r="E42" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>28.010958904109589</v>
+        <v>28.397260273972602</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -6425,7 +6428,7 @@
         <v>0.8882390135946886</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>17</v>
       </c>
@@ -6440,7 +6443,7 @@
       </c>
       <c r="E43" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>27.81095890410959</v>
+        <v>28.197260273972603</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -6472,7 +6475,7 @@
         <v>0.83070063694267515</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>22</v>
       </c>
@@ -6487,7 +6490,7 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>36.819178082191783</v>
+        <v>37.205479452054796</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
@@ -6519,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>24</v>
       </c>
@@ -6534,7 +6537,7 @@
       </c>
       <c r="E45" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>33.153424657534245</v>
+        <v>33.539726027397258</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
@@ -6566,7 +6569,7 @@
         <v>0.86256469235192634</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>12</v>
       </c>
@@ -6581,7 +6584,7 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>33.147945205479452</v>
+        <v>33.534246575342465</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -6613,7 +6616,7 @@
         <v>0.51753881541115587</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>37</v>
       </c>
@@ -6628,7 +6631,7 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>36.046575342465751</v>
+        <v>36.43287671232877</v>
       </c>
       <c r="F47" t="s">
         <v>37</v>
@@ -6660,7 +6663,7 @@
         <v>0.86171079429735231</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>19</v>
       </c>
@@ -6675,7 +6678,7 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>26.265753424657536</v>
+        <v>26.652054794520549</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -6707,7 +6710,7 @@
         <v>0.76221995926680242</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>20</v>
       </c>
@@ -6722,7 +6725,7 @@
       </c>
       <c r="E49" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>25.254794520547946</v>
+        <v>25.641095890410959</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -6754,7 +6757,7 @@
         <v>0.86171079429735231</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>58</v>
       </c>
@@ -6769,7 +6772,7 @@
       </c>
       <c r="E50" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>33.602739726027394</v>
+        <v>33.989041095890414</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -6801,7 +6804,7 @@
         <v>0.68625626342161772</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>51</v>
       </c>
@@ -6816,7 +6819,7 @@
       </c>
       <c r="E51" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>33.158904109589038</v>
+        <v>33.545205479452058</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -6848,7 +6851,7 @@
         <v>0.5483967935871743</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>60</v>
       </c>
@@ -6863,7 +6866,7 @@
       </c>
       <c r="E52" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>35.715068493150682</v>
+        <v>36.101369863013701</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
@@ -6895,7 +6898,7 @@
         <v>0.90396615547329451</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>42</v>
       </c>
@@ -6910,7 +6913,7 @@
       </c>
       <c r="E53" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>54.386301369863013</v>
+        <v>54.772602739726025</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -6942,7 +6945,7 @@
         <v>0.79227921734531992</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>44</v>
       </c>
@@ -6957,7 +6960,7 @@
       </c>
       <c r="E54" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>36.487671232876714</v>
+        <v>36.873972602739727</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -6989,7 +6992,7 @@
         <v>0.89600409836065575</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>15</v>
       </c>
@@ -7004,7 +7007,7 @@
       </c>
       <c r="E55" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>32.594520547945208</v>
+        <v>32.980821917808221</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -7036,7 +7039,7 @@
         <v>0.75819672131147542</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>48</v>
       </c>
@@ -7051,7 +7054,7 @@
       </c>
       <c r="E56" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>42.715068493150682</v>
+        <v>43.101369863013701</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -7083,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>29</v>
       </c>
@@ -7098,7 +7101,7 @@
       </c>
       <c r="E57" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>36.260273972602739</v>
+        <v>36.646575342465752</v>
       </c>
       <c r="F57" t="s">
         <v>37</v>
@@ -7130,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>32</v>
       </c>
@@ -7145,7 +7148,7 @@
       </c>
       <c r="E58" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>45.936986301369863</v>
+        <v>46.323287671232876</v>
       </c>
       <c r="F58" t="s">
         <v>37</v>
@@ -7177,7 +7180,7 @@
         <v>0.37756147540983609</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>50</v>
       </c>
@@ -7192,7 +7195,7 @@
       </c>
       <c r="E59" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>33.824657534246576</v>
+        <v>34.210958904109589</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -7224,7 +7227,7 @@
         <v>0.90068669527896994</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>33</v>
       </c>
@@ -7239,7 +7242,7 @@
       </c>
       <c r="E60" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>36.819178082191783</v>
+        <v>37.205479452054796</v>
       </c>
       <c r="F60" t="s">
         <v>37</v>
@@ -7271,7 +7274,7 @@
         <v>0.84291845493562234</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>18</v>
       </c>
@@ -7286,7 +7289,7 @@
       </c>
       <c r="E61" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>32.265753424657532</v>
+        <v>32.652054794520545</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -7318,7 +7321,7 @@
         <v>0.9001716738197425</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -7333,7 +7336,7 @@
       </c>
       <c r="E62" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>37.043835616438358</v>
+        <v>37.43013698630137</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
@@ -7365,14 +7368,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="I64" s="6"/>
@@ -7411,28 +7414,28 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="25"/>
+    <col min="1" max="1" width="4.54296875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="25"/>
     <col min="4" max="4" width="6" style="25" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="23"/>
-    <col min="10" max="10" width="17.6640625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.5546875" style="23"/>
+    <col min="5" max="5" width="13.90625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.08984375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="23"/>
+    <col min="10" max="10" width="17.6328125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="15.6328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.36328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.54296875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>261</v>
       </c>
@@ -7562,7 +7565,7 @@
       </c>
       <c r="H4" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" s="46"/>
       <c r="J4" s="48"/>
@@ -7632,7 +7635,7 @@
       </c>
       <c r="H6" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I6" s="46"/>
       <c r="J6" s="48"/>
@@ -7702,7 +7705,7 @@
       </c>
       <c r="H8" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="48"/>
@@ -7737,7 +7740,7 @@
       </c>
       <c r="H9" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" s="46"/>
       <c r="J9" s="48"/>
@@ -7772,7 +7775,7 @@
       </c>
       <c r="H10" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="46"/>
@@ -7807,7 +7810,7 @@
       </c>
       <c r="H11" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
@@ -7842,7 +7845,7 @@
       </c>
       <c r="H12" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
@@ -7877,7 +7880,7 @@
       </c>
       <c r="H13" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
@@ -7888,7 +7891,7 @@
       <c r="O13" s="46"/>
       <c r="P13" s="46"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="47">
         <v>12</v>
       </c>
@@ -7912,7 +7915,7 @@
       </c>
       <c r="H14" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14"/>
@@ -7923,7 +7926,7 @@
       <c r="O14" s="46"/>
       <c r="P14" s="46"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="47">
         <v>13</v>
       </c>
@@ -7958,7 +7961,7 @@
       <c r="O15" s="46"/>
       <c r="P15" s="46"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="47">
         <v>2</v>
       </c>
@@ -7993,7 +7996,7 @@
       <c r="O16" s="46"/>
       <c r="P16" s="46"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="47">
         <v>8</v>
       </c>
@@ -8026,7 +8029,7 @@
       <c r="M17" s="46"/>
       <c r="N17" s="48"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="47">
         <v>24</v>
       </c>
@@ -8059,7 +8062,7 @@
       <c r="M18" s="46"/>
       <c r="N18" s="48"/>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="47">
         <v>18</v>
       </c>
@@ -8158,7 +8161,7 @@
       <c r="M21" s="46"/>
       <c r="N21" s="48"/>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="47">
         <v>14</v>
       </c>
@@ -8191,7 +8194,7 @@
       <c r="M22" s="46"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="47">
         <v>20</v>
       </c>
@@ -8215,7 +8218,7 @@
       </c>
       <c r="H23" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="48"/>
@@ -8224,7 +8227,7 @@
       <c r="M23" s="46"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="47">
         <v>30</v>
       </c>
@@ -8248,7 +8251,7 @@
       </c>
       <c r="H24" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I24" s="46"/>
       <c r="J24" s="48"/>
@@ -8257,7 +8260,7 @@
       <c r="M24" s="46"/>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="47">
         <v>22</v>
       </c>
@@ -8281,7 +8284,7 @@
       </c>
       <c r="H25" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
@@ -8290,7 +8293,7 @@
       <c r="M25" s="46"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="47">
         <v>28</v>
       </c>
@@ -8314,7 +8317,7 @@
       </c>
       <c r="H26" s="48">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
@@ -8323,7 +8326,7 @@
       <c r="M26" s="46"/>
       <c r="N26" s="26"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="47">
         <v>17</v>
       </c>
@@ -8356,7 +8359,7 @@
       <c r="M27" s="46"/>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="47">
         <v>5</v>
       </c>
@@ -8389,7 +8392,7 @@
       <c r="M28" s="46"/>
       <c r="N28" s="26"/>
     </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="47">
         <v>25</v>
       </c>
@@ -8422,7 +8425,7 @@
       <c r="M29" s="46"/>
       <c r="N29" s="26"/>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="47">
         <v>10</v>
       </c>
@@ -8455,7 +8458,7 @@
       <c r="M30" s="46"/>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="47">
         <v>3</v>
       </c>
@@ -8488,7 +8491,7 @@
       <c r="M31" s="46"/>
       <c r="N31" s="26"/>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
@@ -8504,7 +8507,7 @@
       <c r="M32" s="46"/>
       <c r="N32" s="26"/>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="47"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
@@ -8520,7 +8523,7 @@
       <c r="M33" s="46"/>
       <c r="N33" s="26"/>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
@@ -8536,7 +8539,7 @@
       <c r="M34" s="46"/>
       <c r="N34" s="26"/>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -8552,7 +8555,7 @@
       <c r="M35" s="46"/>
       <c r="N35" s="26"/>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -8568,7 +8571,7 @@
       <c r="M36" s="46"/>
       <c r="N36" s="26"/>
     </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -8584,7 +8587,7 @@
       <c r="M37" s="46"/>
       <c r="N37" s="26"/>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -8600,7 +8603,7 @@
       <c r="M38" s="46"/>
       <c r="N38" s="26"/>
     </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="47"/>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
@@ -8616,7 +8619,7 @@
       <c r="M39" s="46"/>
       <c r="N39" s="26"/>
     </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -8632,7 +8635,7 @@
       <c r="M40" s="46"/>
       <c r="N40" s="26"/>
     </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -8648,7 +8651,7 @@
       <c r="M41" s="46"/>
       <c r="N41" s="26"/>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -8664,7 +8667,7 @@
       <c r="M42" s="46"/>
       <c r="N42" s="26"/>
     </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
@@ -8680,7 +8683,7 @@
       <c r="M43" s="46"/>
       <c r="N43" s="26"/>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -8696,7 +8699,7 @@
       <c r="M44" s="46"/>
       <c r="N44" s="26"/>
     </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -8712,7 +8715,7 @@
       <c r="M45" s="46"/>
       <c r="N45" s="26"/>
     </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
@@ -8867,23 +8870,23 @@
       <selection activeCell="A2" sqref="A2:J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -8915,7 +8918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -8930,7 +8933,7 @@
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E33" ca="1" si="0">(TODAY()-D2)/365</f>
-        <v>25.468493150684932</v>
+        <v>25.854794520547944</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -8948,7 +8951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -8963,7 +8966,7 @@
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.367123287671234</v>
+        <v>35.753424657534246</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -8981,7 +8984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>43</v>
       </c>
@@ -8996,7 +8999,7 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34.484931506849314</v>
+        <v>34.871232876712327</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -9014,7 +9017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>52</v>
       </c>
@@ -9029,7 +9032,7 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>44.602739726027394</v>
+        <v>44.989041095890414</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -9047,7 +9050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>31</v>
       </c>
@@ -9062,7 +9065,7 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34.493150684931507</v>
+        <v>34.87945205479452</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -9080,7 +9083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -9095,7 +9098,7 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>27.726027397260275</v>
+        <v>28.112328767123287</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -9113,7 +9116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>27</v>
       </c>
@@ -9128,7 +9131,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>25.167123287671235</v>
+        <v>25.553424657534247</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -9146,7 +9149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -9161,7 +9164,7 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>26.07123287671233</v>
+        <v>26.457534246575342</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -9179,7 +9182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -9194,7 +9197,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.19178082191781</v>
+        <v>33.578082191780823</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -9212,7 +9215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -9227,7 +9230,7 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.81917808219178</v>
+        <v>31.205479452054796</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -9245,7 +9248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>35</v>
       </c>
@@ -9260,7 +9263,7 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>39.156164383561645</v>
+        <v>39.542465753424658</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -9278,7 +9281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -9293,7 +9296,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.468493150684932</v>
+        <v>30.854794520547944</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -9311,7 +9314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -9326,7 +9329,7 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.145205479452052</v>
+        <v>33.531506849315072</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -9344,7 +9347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>36</v>
       </c>
@@ -9359,7 +9362,7 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.246575342465754</v>
+        <v>33.632876712328766</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -9377,7 +9380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>38</v>
       </c>
@@ -9392,7 +9395,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.490410958904107</v>
+        <v>33.876712328767127</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -9410,7 +9413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>49</v>
       </c>
@@ -9425,7 +9428,7 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>38.38082191780822</v>
+        <v>38.767123287671232</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -9443,7 +9446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>3</v>
       </c>
@@ -9458,7 +9461,7 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.813698630136987</v>
+        <v>31.2</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -9476,7 +9479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>21</v>
       </c>
@@ -9491,7 +9494,7 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>45.936986301369863</v>
+        <v>46.323287671232876</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -9509,7 +9512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>57</v>
       </c>
@@ -9524,7 +9527,7 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>36.712328767123289</v>
+        <v>37.098630136986301</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -9542,7 +9545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>39</v>
       </c>
@@ -9557,7 +9560,7 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.345205479452055</v>
+        <v>35.731506849315068</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -9575,7 +9578,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>53</v>
       </c>
@@ -9590,7 +9593,7 @@
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>32.372602739726027</v>
+        <v>32.758904109589039</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -9608,7 +9611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>54</v>
       </c>
@@ -9623,7 +9626,7 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.92876712328767</v>
+        <v>31.315068493150687</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9641,7 +9644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>56</v>
       </c>
@@ -9656,7 +9659,7 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34.602739726027394</v>
+        <v>34.989041095890414</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -9674,7 +9677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>59</v>
       </c>
@@ -9689,7 +9692,7 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.671232876712331</v>
+        <v>36.057534246575344</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -9707,7 +9710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>10</v>
       </c>
@@ -9722,7 +9725,7 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>27.676712328767124</v>
+        <v>28.063013698630137</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
@@ -9740,7 +9743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>40</v>
       </c>
@@ -9755,7 +9758,7 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>38.57260273972603</v>
+        <v>38.958904109589042</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -9773,7 +9776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>46</v>
       </c>
@@ -9788,7 +9791,7 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34.934246575342463</v>
+        <v>35.320547945205476</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -9806,7 +9809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -9821,7 +9824,7 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>28.205479452054796</v>
+        <v>28.591780821917808</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9839,7 +9842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -9854,7 +9857,7 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>36.271232876712325</v>
+        <v>36.657534246575345</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -9872,7 +9875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>14</v>
       </c>
@@ -9887,7 +9890,7 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>47.38082191780822</v>
+        <v>47.767123287671232</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -9905,7 +9908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>16</v>
       </c>
@@ -9920,7 +9923,7 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.046575342465751</v>
+        <v>33.43287671232877</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
@@ -9938,7 +9941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -9953,7 +9956,7 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.936986301369863</v>
+        <v>36.323287671232876</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -9971,7 +9974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>25</v>
       </c>
@@ -9986,7 +9989,7 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" ref="E34:E62" ca="1" si="1">(TODAY()-D34)/365</f>
-        <v>31.043835616438358</v>
+        <v>31.43013698630137</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -10004,7 +10007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -10019,7 +10022,7 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.210958904109589</v>
+        <v>35.597260273972601</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -10037,7 +10040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>45</v>
       </c>
@@ -10052,7 +10055,7 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.676712328767124</v>
+        <v>37.063013698630137</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -10070,7 +10073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>47</v>
       </c>
@@ -10085,7 +10088,7 @@
       </c>
       <c r="E37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.172602739726024</v>
+        <v>35.558904109589044</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -10103,7 +10106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>41</v>
       </c>
@@ -10118,7 +10121,7 @@
       </c>
       <c r="E38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>32.704109589041096</v>
+        <v>33.090410958904108</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -10136,7 +10139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>55</v>
       </c>
@@ -10151,7 +10154,7 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.597260273972601</v>
+        <v>33.983561643835614</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -10169,7 +10172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>26</v>
       </c>
@@ -10184,7 +10187,7 @@
       </c>
       <c r="E40" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>26.671232876712327</v>
+        <v>27.057534246575344</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -10202,7 +10205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>4</v>
       </c>
@@ -10217,7 +10220,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.150684931506852</v>
+        <v>33.536986301369865</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -10235,7 +10238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>5</v>
       </c>
@@ -10250,7 +10253,7 @@
       </c>
       <c r="E42" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>28.010958904109589</v>
+        <v>28.397260273972602</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -10268,7 +10271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>17</v>
       </c>
@@ -10283,7 +10286,7 @@
       </c>
       <c r="E43" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>27.81095890410959</v>
+        <v>28.197260273972603</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -10301,7 +10304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>22</v>
       </c>
@@ -10316,7 +10319,7 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.819178082191783</v>
+        <v>37.205479452054796</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
@@ -10334,7 +10337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>24</v>
       </c>
@@ -10349,7 +10352,7 @@
       </c>
       <c r="E45" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.153424657534245</v>
+        <v>33.539726027397258</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
@@ -10367,7 +10370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>12</v>
       </c>
@@ -10382,7 +10385,7 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.147945205479452</v>
+        <v>33.534246575342465</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -10400,7 +10403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>37</v>
       </c>
@@ -10415,7 +10418,7 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.046575342465751</v>
+        <v>36.43287671232877</v>
       </c>
       <c r="F47" t="s">
         <v>37</v>
@@ -10433,7 +10436,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>19</v>
       </c>
@@ -10448,7 +10451,7 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>26.265753424657536</v>
+        <v>26.652054794520549</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -10466,7 +10469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>20</v>
       </c>
@@ -10481,7 +10484,7 @@
       </c>
       <c r="E49" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>25.254794520547946</v>
+        <v>25.641095890410959</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -10499,7 +10502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>58</v>
       </c>
@@ -10514,7 +10517,7 @@
       </c>
       <c r="E50" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.602739726027394</v>
+        <v>33.989041095890414</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -10532,7 +10535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>51</v>
       </c>
@@ -10547,7 +10550,7 @@
       </c>
       <c r="E51" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.158904109589038</v>
+        <v>33.545205479452058</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -10565,7 +10568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>60</v>
       </c>
@@ -10580,7 +10583,7 @@
       </c>
       <c r="E52" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.715068493150682</v>
+        <v>36.101369863013701</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
@@ -10598,7 +10601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>42</v>
       </c>
@@ -10613,7 +10616,7 @@
       </c>
       <c r="E53" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>54.386301369863013</v>
+        <v>54.772602739726025</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -10631,7 +10634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>44</v>
       </c>
@@ -10646,7 +10649,7 @@
       </c>
       <c r="E54" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.487671232876714</v>
+        <v>36.873972602739727</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -10664,7 +10667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>15</v>
       </c>
@@ -10679,7 +10682,7 @@
       </c>
       <c r="E55" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>32.594520547945208</v>
+        <v>32.980821917808221</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -10697,7 +10700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>48</v>
       </c>
@@ -10712,7 +10715,7 @@
       </c>
       <c r="E56" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>42.715068493150682</v>
+        <v>43.101369863013701</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -10730,7 +10733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>29</v>
       </c>
@@ -10745,7 +10748,7 @@
       </c>
       <c r="E57" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.260273972602739</v>
+        <v>36.646575342465752</v>
       </c>
       <c r="F57" t="s">
         <v>37</v>
@@ -10763,7 +10766,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>32</v>
       </c>
@@ -10778,7 +10781,7 @@
       </c>
       <c r="E58" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>45.936986301369863</v>
+        <v>46.323287671232876</v>
       </c>
       <c r="F58" t="s">
         <v>37</v>
@@ -10796,7 +10799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>50</v>
       </c>
@@ -10811,7 +10814,7 @@
       </c>
       <c r="E59" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.824657534246576</v>
+        <v>34.210958904109589</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -10829,7 +10832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>33</v>
       </c>
@@ -10844,7 +10847,7 @@
       </c>
       <c r="E60" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.819178082191783</v>
+        <v>37.205479452054796</v>
       </c>
       <c r="F60" t="s">
         <v>37</v>
@@ -10862,7 +10865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>18</v>
       </c>
@@ -10877,7 +10880,7 @@
       </c>
       <c r="E61" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>32.265753424657532</v>
+        <v>32.652054794520545</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -10895,7 +10898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -10910,7 +10913,7 @@
       </c>
       <c r="E62" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>37.043835616438358</v>
+        <v>37.43013698630137</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
@@ -10928,13 +10931,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="G63" s="6"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="G64" s="6"/>
@@ -10958,24 +10961,24 @@
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -11013,7 +11016,7 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -11028,7 +11031,7 @@
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:E33" ca="1" si="0">(TODAY()-D2)/365</f>
-        <v>35.367123287671234</v>
+        <v>35.753424657534246</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -11046,7 +11049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -11061,7 +11064,7 @@
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>25.468493150684932</v>
+        <v>25.854794520547944</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -11079,7 +11082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -11094,7 +11097,7 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>30.813698630136987</v>
+        <v>31.2</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -11112,7 +11115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>40</v>
       </c>
@@ -11127,7 +11130,7 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>38.57260273972603</v>
+        <v>38.958904109589042</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -11145,7 +11148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -11160,7 +11163,7 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.150684931506852</v>
+        <v>33.536986301369865</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -11178,7 +11181,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>21</v>
       </c>
@@ -11193,7 +11196,7 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>45.936986301369863</v>
+        <v>46.323287671232876</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -11211,7 +11214,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -11226,7 +11229,7 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>28.008219178082193</v>
+        <v>28.394520547945206</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -11244,7 +11247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>28</v>
       </c>
@@ -11259,7 +11262,7 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>36.271232876712325</v>
+        <v>36.657534246575345</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -11277,7 +11280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>33</v>
       </c>
@@ -11292,7 +11295,7 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>36.819178082191783</v>
+        <v>37.205479452054796</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -11310,7 +11313,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -11325,7 +11328,7 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>26.07123287671233</v>
+        <v>26.457534246575342</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -11343,7 +11346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>41</v>
       </c>
@@ -11358,7 +11361,7 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>32.704109589041096</v>
+        <v>33.090410958904108</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -11376,7 +11379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>25</v>
       </c>
@@ -11391,7 +11394,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>31.043835616438358</v>
+        <v>31.43013698630137</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -11409,7 +11412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>42</v>
       </c>
@@ -11424,7 +11427,7 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>54.386301369863013</v>
+        <v>54.772602739726025</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -11442,7 +11445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -11457,7 +11460,7 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>27.676712328767124</v>
+        <v>28.063013698630137</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -11475,7 +11478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -11490,7 +11493,7 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.145205479452052</v>
+        <v>33.531506849315072</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -11508,7 +11511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -11523,7 +11526,7 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>47.38082191780822</v>
+        <v>47.767123287671232</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -11541,7 +11544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>51</v>
       </c>
@@ -11556,7 +11559,7 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.158904109589038</v>
+        <v>33.545205479452058</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -11574,7 +11577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -11589,7 +11592,7 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.046575342465751</v>
+        <v>33.43287671232877</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -11607,7 +11610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>7</v>
       </c>
@@ -11622,7 +11625,7 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.19178082191781</v>
+        <v>33.578082191780823</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -11640,7 +11643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>17</v>
       </c>
@@ -11655,7 +11658,7 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>27.81095890410959</v>
+        <v>28.197260273972603</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -11673,7 +11676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>18</v>
       </c>
@@ -11688,7 +11691,7 @@
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>32.265753424657532</v>
+        <v>32.652054794520545</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -11706,7 +11709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>5</v>
       </c>
@@ -11721,7 +11724,7 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>28.010958904109589</v>
+        <v>28.397260273972602</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -11739,7 +11742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>19</v>
       </c>
@@ -11754,7 +11757,7 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>26.265753424657536</v>
+        <v>26.652054794520549</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -11772,7 +11775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>20</v>
       </c>
@@ -11787,7 +11790,7 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>25.254794520547946</v>
+        <v>25.641095890410959</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -11805,7 +11808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>35</v>
       </c>
@@ -11820,7 +11823,7 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>39.156164383561645</v>
+        <v>39.542465753424658</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
@@ -11838,7 +11841,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>48</v>
       </c>
@@ -11853,7 +11856,7 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>42.715068493150682</v>
+        <v>43.101369863013701</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
@@ -11871,7 +11874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>52</v>
       </c>
@@ -11886,7 +11889,7 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>44.602739726027394</v>
+        <v>44.989041095890414</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
@@ -11904,7 +11907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>23</v>
       </c>
@@ -11919,7 +11922,7 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>28.205479452054796</v>
+        <v>28.591780821917808</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -11937,7 +11940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>26</v>
       </c>
@@ -11952,7 +11955,7 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>26.671232876712327</v>
+        <v>27.057534246575344</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
@@ -11970,7 +11973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>27</v>
       </c>
@@ -11985,7 +11988,7 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>25.167123287671235</v>
+        <v>25.553424657534247</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -12003,7 +12006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>13</v>
       </c>
@@ -12018,7 +12021,7 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.145205479452052</v>
+        <v>33.531506849315072</v>
       </c>
       <c r="F32" t="s">
         <v>37</v>
@@ -12036,7 +12039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>28</v>
       </c>
@@ -12051,7 +12054,7 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>36.271232876712325</v>
+        <v>36.657534246575345</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -12069,7 +12072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>37</v>
       </c>
@@ -12084,7 +12087,7 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" ref="E34:E65" ca="1" si="1">(TODAY()-D34)/365</f>
-        <v>36.046575342465751</v>
+        <v>36.43287671232877</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
@@ -12102,7 +12105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>30</v>
       </c>
@@ -12117,7 +12120,7 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.936986301369863</v>
+        <v>36.323287671232876</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -12135,7 +12138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>31</v>
       </c>
@@ -12150,7 +12153,7 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>34.493150684931507</v>
+        <v>34.87945205479452</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -12168,7 +12171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>47</v>
       </c>
@@ -12183,7 +12186,7 @@
       </c>
       <c r="E37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.172602739726024</v>
+        <v>35.558904109589044</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -12201,7 +12204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>32</v>
       </c>
@@ -12216,7 +12219,7 @@
       </c>
       <c r="E38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>45.936986301369863</v>
+        <v>46.323287671232876</v>
       </c>
       <c r="F38" t="s">
         <v>37</v>
@@ -12234,7 +12237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>33</v>
       </c>
@@ -12249,7 +12252,7 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.819178082191783</v>
+        <v>37.205479452054796</v>
       </c>
       <c r="F39" t="s">
         <v>37</v>
@@ -12267,7 +12270,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>22</v>
       </c>
@@ -12282,7 +12285,7 @@
       </c>
       <c r="E40" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.819178082191783</v>
+        <v>37.205479452054796</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
@@ -12300,7 +12303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>15</v>
       </c>
@@ -12315,7 +12318,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>32.594520547945208</v>
+        <v>32.980821917808221</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -12333,7 +12336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>34</v>
       </c>
@@ -12348,7 +12351,7 @@
       </c>
       <c r="E42" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.210958904109589</v>
+        <v>35.597260273972601</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -12366,7 +12369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>48</v>
       </c>
@@ -12381,7 +12384,7 @@
       </c>
       <c r="E43" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>42.715068493150682</v>
+        <v>43.101369863013701</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -12399,7 +12402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>35</v>
       </c>
@@ -12414,7 +12417,7 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>39.156164383561645</v>
+        <v>39.542465753424658</v>
       </c>
       <c r="F44" t="s">
         <v>37</v>
@@ -12432,7 +12435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>6</v>
       </c>
@@ -12447,7 +12450,7 @@
       </c>
       <c r="E45" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>27.726027397260275</v>
+        <v>28.112328767123287</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
@@ -12465,7 +12468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>36</v>
       </c>
@@ -12480,7 +12483,7 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.246575342465754</v>
+        <v>33.632876712328766</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -12498,7 +12501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>36</v>
       </c>
@@ -12513,7 +12516,7 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.246575342465754</v>
+        <v>33.632876712328766</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
@@ -12531,7 +12534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>37</v>
       </c>
@@ -12546,7 +12549,7 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.046575342465751</v>
+        <v>36.43287671232877</v>
       </c>
       <c r="F48" t="s">
         <v>37</v>
@@ -12564,7 +12567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>24</v>
       </c>
@@ -12579,7 +12582,7 @@
       </c>
       <c r="E49" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.153424657534245</v>
+        <v>33.539726027397258</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -12597,7 +12600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>47</v>
       </c>
@@ -12612,7 +12615,7 @@
       </c>
       <c r="E50" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>35.172602739726024</v>
+        <v>35.558904109589044</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -12630,7 +12633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>55</v>
       </c>
@@ -12645,7 +12648,7 @@
       </c>
       <c r="E51" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.597260273972601</v>
+        <v>33.983561643835614</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -12663,7 +12666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>38</v>
       </c>
@@ -12678,7 +12681,7 @@
       </c>
       <c r="E52" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.490410958904107</v>
+        <v>33.876712328767127</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
@@ -12696,7 +12699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>29</v>
       </c>
@@ -12711,7 +12714,7 @@
       </c>
       <c r="E53" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.260273972602739</v>
+        <v>36.646575342465752</v>
       </c>
       <c r="F53" t="s">
         <v>37</v>
@@ -12729,7 +12732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>49</v>
       </c>
@@ -12744,7 +12747,7 @@
       </c>
       <c r="E54" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>38.38082191780822</v>
+        <v>38.767123287671232</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -12762,7 +12765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>50</v>
       </c>
@@ -12777,7 +12780,7 @@
       </c>
       <c r="E55" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.824657534246576</v>
+        <v>34.210958904109589</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -12795,7 +12798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>11</v>
       </c>
@@ -12810,7 +12813,7 @@
       </c>
       <c r="E56" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>30.468493150684932</v>
+        <v>30.854794520547944</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -12828,7 +12831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>12</v>
       </c>
@@ -12843,7 +12846,7 @@
       </c>
       <c r="E57" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.147945205479452</v>
+        <v>33.534246575342465</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -12861,7 +12864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>41</v>
       </c>
@@ -12876,7 +12879,7 @@
       </c>
       <c r="E58" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>32.704109589041096</v>
+        <v>33.090410958904108</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -12894,7 +12897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>7</v>
       </c>
@@ -12909,7 +12912,7 @@
       </c>
       <c r="E59" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>33.19178082191781</v>
+        <v>33.578082191780823</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -12927,7 +12930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>17</v>
       </c>
@@ -12942,7 +12945,7 @@
       </c>
       <c r="E60" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>27.81095890410959</v>
+        <v>28.197260273972603</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -12960,7 +12963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>42</v>
       </c>
@@ -12975,7 +12978,7 @@
       </c>
       <c r="E61" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>54.386301369863013</v>
+        <v>54.772602739726025</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -12993,7 +12996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>43</v>
       </c>
@@ -13008,7 +13011,7 @@
       </c>
       <c r="E62" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>34.484931506849314</v>
+        <v>34.871232876712327</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
@@ -13026,7 +13029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>43</v>
       </c>
@@ -13041,7 +13044,7 @@
       </c>
       <c r="E63" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>34.484931506849314</v>
+        <v>34.871232876712327</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
@@ -13059,7 +13062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>44</v>
       </c>
@@ -13074,7 +13077,7 @@
       </c>
       <c r="E64" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.487671232876714</v>
+        <v>36.873972602739727</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
@@ -13092,7 +13095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>45</v>
       </c>
@@ -13107,7 +13110,7 @@
       </c>
       <c r="E65" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>36.676712328767124</v>
+        <v>37.063013698630137</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
@@ -13125,7 +13128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <v>46</v>
       </c>
@@ -13140,7 +13143,7 @@
       </c>
       <c r="E66" s="5">
         <f t="shared" ref="E66:E87" ca="1" si="2">(TODAY()-D66)/365</f>
-        <v>34.934246575342463</v>
+        <v>35.320547945205476</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
@@ -13158,7 +13161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="8">
         <v>55</v>
       </c>
@@ -13173,7 +13176,7 @@
       </c>
       <c r="E67" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>33.597260273972601</v>
+        <v>33.983561643835614</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
@@ -13191,7 +13194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="8">
         <v>15</v>
       </c>
@@ -13206,7 +13209,7 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>32.594520547945208</v>
+        <v>32.980821917808221</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
@@ -13224,7 +13227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>49</v>
       </c>
@@ -13239,7 +13242,7 @@
       </c>
       <c r="E69" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>38.38082191780822</v>
+        <v>38.767123287671232</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
@@ -13257,7 +13260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <v>29</v>
       </c>
@@ -13272,7 +13275,7 @@
       </c>
       <c r="E70" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>36.260273972602739</v>
+        <v>36.646575342465752</v>
       </c>
       <c r="F70" t="s">
         <v>37</v>
@@ -13290,7 +13293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="8">
         <v>50</v>
       </c>
@@ -13305,7 +13308,7 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>33.824657534246576</v>
+        <v>34.210958904109589</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
@@ -13323,7 +13326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>51</v>
       </c>
@@ -13338,7 +13341,7 @@
       </c>
       <c r="E72" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>33.158904109589038</v>
+        <v>33.545205479452058</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -13356,7 +13359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>8</v>
       </c>
@@ -13371,7 +13374,7 @@
       </c>
       <c r="E73" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>26.07123287671233</v>
+        <v>26.457534246575342</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
@@ -13389,7 +13392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>22</v>
       </c>
@@ -13404,7 +13407,7 @@
       </c>
       <c r="E74" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>36.819178082191783</v>
+        <v>37.205479452054796</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -13422,7 +13425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>9</v>
       </c>
@@ -13437,7 +13440,7 @@
       </c>
       <c r="E75" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>30.81917808219178</v>
+        <v>31.205479452054796</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
@@ -13455,7 +13458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>10</v>
       </c>
@@ -13470,7 +13473,7 @@
       </c>
       <c r="E76" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>27.676712328767124</v>
+        <v>28.063013698630137</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
@@ -13488,7 +13491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>52</v>
       </c>
@@ -13503,7 +13506,7 @@
       </c>
       <c r="E77" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>44.602739726027394</v>
+        <v>44.989041095890414</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
@@ -13521,7 +13524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>53</v>
       </c>
@@ -13536,7 +13539,7 @@
       </c>
       <c r="E78" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>32.372602739726027</v>
+        <v>32.758904109589039</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -13554,7 +13557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
         <v>54</v>
       </c>
@@ -13569,7 +13572,7 @@
       </c>
       <c r="E79" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>30.92876712328767</v>
+        <v>31.315068493150687</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -13587,7 +13590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>56</v>
       </c>
@@ -13602,7 +13605,7 @@
       </c>
       <c r="E80" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>34.602739726027394</v>
+        <v>34.989041095890414</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
@@ -13620,7 +13623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>57</v>
       </c>
@@ -13635,7 +13638,7 @@
       </c>
       <c r="E81" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>36.712328767123289</v>
+        <v>37.098630136986301</v>
       </c>
       <c r="F81" t="s">
         <v>37</v>
@@ -13653,7 +13656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
         <v>58</v>
       </c>
@@ -13668,7 +13671,7 @@
       </c>
       <c r="E82" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>33.602739726027394</v>
+        <v>33.989041095890414</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
@@ -13686,7 +13689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
         <v>39</v>
       </c>
@@ -13701,7 +13704,7 @@
       </c>
       <c r="E83" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>35.345205479452055</v>
+        <v>35.731506849315068</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
@@ -13719,7 +13722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>40</v>
       </c>
@@ -13734,7 +13737,7 @@
       </c>
       <c r="E84" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>38.57260273972603</v>
+        <v>38.958904109589042</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
@@ -13752,7 +13755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
         <v>59</v>
       </c>
@@ -13767,7 +13770,7 @@
       </c>
       <c r="E85" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>35.671232876712331</v>
+        <v>36.057534246575344</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
@@ -13785,7 +13788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <v>60</v>
       </c>
@@ -13800,7 +13803,7 @@
       </c>
       <c r="E86" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>35.715068493150682</v>
+        <v>36.101369863013701</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
@@ -13818,7 +13821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
         <v>61</v>
       </c>
@@ -13833,7 +13836,7 @@
       </c>
       <c r="E87" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>37.043835616438358</v>
+        <v>37.43013698630137</v>
       </c>
       <c r="F87" t="s">
         <v>37</v>
@@ -13851,7 +13854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
       <c r="D88" s="7"/>
       <c r="E88" s="5"/>
@@ -13859,7 +13862,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
       <c r="D89" s="7"/>
       <c r="E89" s="5"/>
@@ -13867,7 +13870,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
       <c r="D90" s="7"/>
       <c r="E90" s="5"/>
@@ -13875,7 +13878,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="6"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
       <c r="D91" s="7"/>
       <c r="E91" s="5"/>
@@ -13883,7 +13886,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
       <c r="D92" s="7"/>
       <c r="E92" s="5"/>
@@ -13891,7 +13894,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
       <c r="D93" s="7"/>
       <c r="E93" s="5"/>
@@ -13899,7 +13902,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="6"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
       <c r="D94" s="7"/>
       <c r="E94" s="5"/>
@@ -13907,7 +13910,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
       <c r="D95" s="7"/>
       <c r="E95" s="5"/>
@@ -13924,15 +13927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Statusofmaterial xmlns="eac83ec6-6f47-45c8-8182-335b1d52a78e" xsi:nil="true"/>
@@ -13952,6 +13946,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14303,20 +14306,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C71824B-D783-43E6-ABBE-E96AF2C70CF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F22D6D3-6B55-471C-BBF4-A4D1627D9AEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="eac83ec6-6f47-45c8-8182-335b1d52a78e"/>
     <ds:schemaRef ds:uri="275339dd-7a42-4708-9a3d-cb97ad4c617e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C71824B-D783-43E6-ABBE-E96AF2C70CF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
